--- a/水泥/1102/1102(102.1~105.4)5.xlsx
+++ b/水泥/1102/1102(102.1~105.4)5.xlsx
@@ -238,95 +238,96 @@
     <t>股利收入</t>
   </si>
   <si>
+    <t>與營業活動相關之資產之淨變動合計</t>
+  </si>
+  <si>
+    <t>與營業活動相關之資產及負債之淨變動合計</t>
+  </si>
+  <si>
+    <t>舉借長期借款</t>
+  </si>
+  <si>
+    <t>處分不動產、廠房及設備</t>
+  </si>
+  <si>
+    <t>處分備供出售金融資產</t>
+  </si>
+  <si>
+    <t>處分及報廢不動產、廠房及設備損失（利益）</t>
+  </si>
+  <si>
+    <t>處分投資損失（利益）</t>
+  </si>
+  <si>
+    <t>處分持有至到期日金融資產</t>
+  </si>
+  <si>
+    <t>處分採用權益法之投資</t>
+  </si>
+  <si>
+    <t>處分採用權益法之投資損失（利益）</t>
+  </si>
+  <si>
+    <t>處分無形資產</t>
+  </si>
+  <si>
+    <t>處分無活絡市場之債券投資</t>
+  </si>
+  <si>
+    <t>處分無活絡市場之債務工具投資</t>
+  </si>
+  <si>
+    <t>調整項目合計</t>
+  </si>
+  <si>
+    <t>負債準備增加（減少）</t>
+  </si>
+  <si>
+    <t>買回應付公司債損失（利益）</t>
+  </si>
+  <si>
+    <t>資產負債表帳列之現金及約當現金</t>
+  </si>
+  <si>
+    <t>退還（支付）之所得稅</t>
+  </si>
+  <si>
+    <t>透過其他綜合損益按公允價值衡量之金融資產減資退回股款</t>
+  </si>
+  <si>
+    <t>透過損益按公允價值衡量金融資產及負債之淨損失（利益）</t>
+  </si>
+  <si>
+    <t>遞延貸項增加（減少）</t>
+  </si>
+  <si>
+    <t>金融資產減損損失</t>
+  </si>
+  <si>
+    <t>非控制權益變動</t>
+  </si>
+  <si>
+    <t>非金融資產減損損失</t>
+  </si>
+  <si>
+    <t>非金融資產減損迴轉利益</t>
+  </si>
+  <si>
+    <t>預付款項（增加）減少</t>
+  </si>
+  <si>
+    <t>預收款項增加（減少）</t>
+  </si>
+  <si>
     <t>與營業活動相關之負債之淨變動合計</t>
-  </si>
-  <si>
-    <t>與營業活動相關之資產之淨變動合計</t>
-  </si>
-  <si>
-    <t>與營業活動相關之資產及負債之淨變動合計</t>
-  </si>
-  <si>
-    <t>舉借長期借款</t>
-  </si>
-  <si>
-    <t>處分不動產、廠房及設備</t>
-  </si>
-  <si>
-    <t>處分備供出售金融資產</t>
-  </si>
-  <si>
-    <t>處分及報廢不動產、廠房及設備損失（利益）</t>
-  </si>
-  <si>
-    <t>處分投資損失（利益）</t>
-  </si>
-  <si>
-    <t>處分持有至到期日金融資產</t>
-  </si>
-  <si>
-    <t>處分採用權益法之投資</t>
-  </si>
-  <si>
-    <t>處分採用權益法之投資損失（利益）</t>
-  </si>
-  <si>
-    <t>處分無形資產</t>
-  </si>
-  <si>
-    <t>處分無活絡市場之債券投資</t>
-  </si>
-  <si>
-    <t>處分無活絡市場之債務工具投資</t>
-  </si>
-  <si>
-    <t>調整項目合計</t>
-  </si>
-  <si>
-    <t>負債準備增加（減少）</t>
-  </si>
-  <si>
-    <t>買回應付公司債損失（利益）</t>
-  </si>
-  <si>
-    <t>資產負債表帳列之現金及約當現金</t>
-  </si>
-  <si>
-    <t>退還（支付）之所得稅</t>
-  </si>
-  <si>
-    <t>透過其他綜合損益按公允價值衡量之金融資產減資退回股款</t>
-  </si>
-  <si>
-    <t>透過損益按公允價值衡量金融資產及負債之淨損失（利益）</t>
-  </si>
-  <si>
-    <t>遞延貸項增加（減少）</t>
-  </si>
-  <si>
-    <t>金融資產減損損失</t>
-  </si>
-  <si>
-    <t>非控制權益變動</t>
-  </si>
-  <si>
-    <t>非金融資產減損損失</t>
-  </si>
-  <si>
-    <t>非金融資產減損迴轉利益</t>
-  </si>
-  <si>
-    <t>預付款項（增加）減少</t>
-  </si>
-  <si>
-    <t>預收款項增加（減少）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,6 +493,22 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -921,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,6 +949,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1670,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -1679,7 +1702,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13">
@@ -1720,7 +1743,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E14">
@@ -1749,7 +1772,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -4264,8 +4287,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>74</v>
+      <c r="A74" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B74" s="1">
         <v>721454</v>
@@ -4317,8 +4340,8 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>75</v>
+      <c r="A75" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>-3174938</v>
@@ -4370,8 +4393,8 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>76</v>
+      <c r="A76" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>-2453484</v>
@@ -4424,7 +4447,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>15129985</v>
@@ -4477,7 +4500,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>13531</v>
@@ -4530,7 +4553,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>69892</v>
@@ -4583,7 +4606,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>-7856</v>
@@ -4636,7 +4659,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>-1689</v>
@@ -4689,7 +4712,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="1">
         <v>379793</v>
@@ -4700,7 +4723,7 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4732,7 +4755,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -4752,7 +4775,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85">
         <v>8</v>
@@ -4763,7 +4786,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" s="1">
         <v>1795671</v>
@@ -4777,7 +4800,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M87" s="1">
         <v>588722</v>
@@ -4797,7 +4820,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>-1373073</v>
@@ -4850,7 +4873,7 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>2128</v>
@@ -4903,7 +4926,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1">
         <v>116382</v>
@@ -4947,7 +4970,7 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>14912589</v>
@@ -5000,7 +5023,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>-154912</v>
@@ -5053,7 +5076,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N93" s="1">
         <v>3052</v>
@@ -5061,7 +5084,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>-309974</v>
@@ -5114,7 +5137,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E95" s="1">
         <v>-51064</v>
@@ -5158,7 +5181,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F96" s="1">
         <v>32500</v>
@@ -5184,7 +5207,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5234,7 +5257,7 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>-47212</v>
@@ -5284,7 +5307,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" s="1">
         <v>-44813</v>
@@ -5325,7 +5348,7 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>-272321</v>
@@ -5378,7 +5401,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D101" s="1">
         <v>26312</v>
